--- a/Reproducibility Package/documentation/rider-audits/pooled/codebooks/label-constructed-data.xlsx
+++ b/Reproducibility Package/documentation/rider-audits/pooled/codebooks/label-constructed-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio-safe-space\Replication Package\documentation\rider-audits\pooled\codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio-safe-space\Reproducibility Package\documentation\rider-audits\pooled\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB2E167-FD75-46F2-BC6C-B3444E1E865E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192EA74-C406-4155-AB98-17D1C18D538F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="762">
   <si>
     <t>name</t>
   </si>
@@ -440,9 +440,6 @@
     <t>MA_line</t>
   </si>
   <si>
-    <t>time_station_bin</t>
-  </si>
-  <si>
     <t>MA_men_present_pink</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t>treatment_line</t>
   </si>
   <si>
-    <t>station_bin</t>
-  </si>
-  <si>
     <t>month_group</t>
   </si>
   <si>
@@ -1439,9 +1433,6 @@
     <t>Mapping - line</t>
   </si>
   <si>
-    <t>Time and station bin</t>
-  </si>
-  <si>
     <t>Average share of men in reserved space</t>
   </si>
   <si>
@@ -1479,9 +1470,6 @@
   </si>
   <si>
     <t>Treatment status during compliance pilot</t>
-  </si>
-  <si>
-    <t>Station bin</t>
   </si>
   <si>
     <t>Month group</t>
@@ -2682,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I348"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="D310" sqref="D310"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2713,16 +2701,16 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2759,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2771,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -2785,7 +2773,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -2811,7 +2799,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -2823,13 +2811,13 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2849,13 +2837,13 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -2863,7 +2851,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -2875,10 +2863,10 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -2889,7 +2877,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2927,13 +2915,13 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -2944,7 +2932,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2956,7 +2944,7 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -2979,10 +2967,10 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -3005,10 +2993,10 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G12" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -3031,10 +3019,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G13" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -3057,10 +3045,10 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G14" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -3083,7 +3071,7 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -3109,7 +3097,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -3132,16 +3120,16 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G17" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H17" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -3161,13 +3149,13 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G18" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H18" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -3184,16 +3172,16 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -3210,16 +3198,16 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G20" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H20" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -3236,16 +3224,16 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G21" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H21" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -3265,10 +3253,10 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G22" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H22" t="s">
         <v>34</v>
@@ -3291,10 +3279,10 @@
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G23" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H23" t="s">
         <v>35</v>
@@ -3314,16 +3302,16 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G24" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -3343,10 +3331,10 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G25" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
@@ -3360,7 +3348,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -3369,13 +3357,13 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G26" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
@@ -3398,10 +3386,10 @@
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G27" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -3424,10 +3412,10 @@
         <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G28" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
@@ -3450,10 +3438,10 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G29" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
@@ -3476,10 +3464,10 @@
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G30" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
@@ -3502,10 +3490,10 @@
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G31" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -3528,10 +3516,10 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G32" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
@@ -3554,10 +3542,10 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G33" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
@@ -3580,10 +3568,10 @@
         <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G34" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
@@ -3606,10 +3594,10 @@
         <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G35" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
@@ -3632,10 +3620,10 @@
         <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G36" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
@@ -3658,10 +3646,10 @@
         <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G37" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
@@ -3684,10 +3672,10 @@
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
@@ -3710,13 +3698,13 @@
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G39" t="s">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -3736,7 +3724,7 @@
         <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
@@ -3759,16 +3747,16 @@
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -3788,13 +3776,13 @@
         <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -3814,13 +3802,13 @@
         <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -3840,13 +3828,13 @@
         <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H44" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -3866,10 +3854,10 @@
         <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G45" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H45" t="s">
         <v>17</v>
@@ -3892,13 +3880,13 @@
         <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G46" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H46" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -3918,10 +3906,10 @@
         <v>57</v>
       </c>
       <c r="F47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G47" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -3944,7 +3932,7 @@
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
@@ -3970,7 +3958,7 @@
         <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
@@ -3996,13 +3984,13 @@
         <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -4022,7 +4010,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G51" t="s">
         <v>5</v>
@@ -4048,7 +4036,7 @@
         <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
@@ -4065,7 +4053,7 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -4074,10 +4062,10 @@
         <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
@@ -4094,16 +4082,16 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D54" t="s">
         <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G54" t="s">
         <v>5</v>
@@ -4117,7 +4105,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -4129,10 +4117,10 @@
         <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G55" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H55" t="s">
         <v>17</v>
@@ -4155,10 +4143,10 @@
         <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G56" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H56" t="s">
         <v>17</v>
@@ -4181,10 +4169,10 @@
         <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G57" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
@@ -4207,10 +4195,10 @@
         <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G58" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
@@ -4233,13 +4221,13 @@
         <v>69</v>
       </c>
       <c r="F59" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G59" t="s">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="I59" t="s">
         <v>17</v>
@@ -4259,10 +4247,10 @@
         <v>70</v>
       </c>
       <c r="F60" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G60" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
@@ -4276,7 +4264,7 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -4288,7 +4276,7 @@
         <v>71</v>
       </c>
       <c r="F61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G61" t="s">
         <v>5</v>
@@ -4314,7 +4302,7 @@
         <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
@@ -4340,7 +4328,7 @@
         <v>73</v>
       </c>
       <c r="F63" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
@@ -4357,7 +4345,7 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -4369,13 +4357,13 @@
         <v>74</v>
       </c>
       <c r="F64" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G64" t="s">
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -4395,7 +4383,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G65" t="s">
         <v>5</v>
@@ -4408,6 +4396,9 @@
       </c>
     </row>
     <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
@@ -4421,13 +4412,13 @@
         <v>76</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -4447,13 +4438,13 @@
         <v>77</v>
       </c>
       <c r="F67" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G67" t="s">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -4473,7 +4464,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G68" t="s">
         <v>5</v>
@@ -4499,10 +4490,10 @@
         <v>79</v>
       </c>
       <c r="F69" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G69" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H69" t="s">
         <v>17</v>
@@ -4525,7 +4516,7 @@
         <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
@@ -4551,13 +4542,13 @@
         <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -4574,13 +4565,13 @@
         <v>82</v>
       </c>
       <c r="F72" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4597,13 +4588,13 @@
         <v>83</v>
       </c>
       <c r="F73" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -4623,10 +4614,10 @@
         <v>84</v>
       </c>
       <c r="F74" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G74" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H74" t="s">
         <v>17</v>
@@ -4649,10 +4640,10 @@
         <v>85</v>
       </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G75" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
@@ -4675,7 +4666,7 @@
         <v>86</v>
       </c>
       <c r="F76" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
@@ -4701,10 +4692,10 @@
         <v>87</v>
       </c>
       <c r="F77" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G77" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H77" t="s">
         <v>17</v>
@@ -4718,7 +4709,7 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -4730,10 +4721,10 @@
         <v>88</v>
       </c>
       <c r="F78" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G78" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
@@ -4756,10 +4747,10 @@
         <v>89</v>
       </c>
       <c r="F79" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G79" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
@@ -4782,10 +4773,10 @@
         <v>90</v>
       </c>
       <c r="F80" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G80" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H80" t="s">
         <v>17</v>
@@ -4805,13 +4796,13 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F81" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G81" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
@@ -4834,13 +4825,13 @@
         <v>91</v>
       </c>
       <c r="F82" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H82" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -4860,7 +4851,7 @@
         <v>92</v>
       </c>
       <c r="F83" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
@@ -4886,7 +4877,7 @@
         <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
@@ -4912,7 +4903,7 @@
         <v>94</v>
       </c>
       <c r="F85" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G85" t="s">
         <v>5</v>
@@ -4938,7 +4929,7 @@
         <v>95</v>
       </c>
       <c r="F86" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
@@ -4964,7 +4955,7 @@
         <v>96</v>
       </c>
       <c r="F87" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
@@ -4990,7 +4981,7 @@
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
@@ -5007,7 +4998,7 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
@@ -5019,7 +5010,7 @@
         <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G89" t="s">
         <v>5</v>
@@ -5045,7 +5036,7 @@
         <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
@@ -5071,7 +5062,7 @@
         <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
@@ -5097,13 +5088,13 @@
         <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G92" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H92" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -5114,7 +5105,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -5126,16 +5117,16 @@
         <v>102</v>
       </c>
       <c r="F93" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G93" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H93" t="s">
         <v>102</v>
       </c>
       <c r="I93" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5152,7 +5143,7 @@
         <v>103</v>
       </c>
       <c r="F94" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
@@ -5178,7 +5169,7 @@
         <v>104</v>
       </c>
       <c r="F95" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
@@ -5204,10 +5195,10 @@
         <v>105</v>
       </c>
       <c r="F96" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G96" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H96" t="s">
         <v>17</v>
@@ -5230,10 +5221,10 @@
         <v>106</v>
       </c>
       <c r="F97" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G97" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H97" t="s">
         <v>17</v>
@@ -5256,10 +5247,10 @@
         <v>107</v>
       </c>
       <c r="F98" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G98" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H98" t="s">
         <v>17</v>
@@ -5282,7 +5273,7 @@
         <v>108</v>
       </c>
       <c r="F99" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G99" t="s">
         <v>5</v>
@@ -5308,7 +5299,7 @@
         <v>109</v>
       </c>
       <c r="F100" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
@@ -5334,13 +5325,13 @@
         <v>110</v>
       </c>
       <c r="F101" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -5360,7 +5351,7 @@
         <v>111</v>
       </c>
       <c r="F102" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
@@ -5386,7 +5377,7 @@
         <v>112</v>
       </c>
       <c r="F103" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
@@ -5399,6 +5390,9 @@
       </c>
     </row>
     <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
       <c r="B104" t="s">
         <v>17</v>
       </c>
@@ -5412,13 +5406,13 @@
         <v>113</v>
       </c>
       <c r="F104" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G104" t="s">
         <v>5</v>
       </c>
       <c r="H104" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -5438,7 +5432,7 @@
         <v>114</v>
       </c>
       <c r="F105" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G105" t="s">
         <v>5</v>
@@ -5455,7 +5449,7 @@
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -5464,10 +5458,10 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F106" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
@@ -5484,7 +5478,7 @@
         <v>116</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -5493,10 +5487,10 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F107" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G107" t="s">
         <v>5</v>
@@ -5522,7 +5516,7 @@
         <v>117</v>
       </c>
       <c r="F108" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
@@ -5539,7 +5533,7 @@
         <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
@@ -5548,10 +5542,10 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F109" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
@@ -5577,10 +5571,10 @@
         <v>119</v>
       </c>
       <c r="F110" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G110" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
@@ -5603,10 +5597,10 @@
         <v>120</v>
       </c>
       <c r="F111" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G111" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
@@ -5629,10 +5623,10 @@
         <v>121</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G112" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H112" t="s">
         <v>17</v>
@@ -5655,13 +5649,13 @@
         <v>122</v>
       </c>
       <c r="F113" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G113" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H113" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -5681,10 +5675,10 @@
         <v>123</v>
       </c>
       <c r="F114" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G114" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H114" t="s">
         <v>17</v>
@@ -5707,10 +5701,10 @@
         <v>124</v>
       </c>
       <c r="F115" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G115" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H115" t="s">
         <v>17</v>
@@ -5733,10 +5727,10 @@
         <v>125</v>
       </c>
       <c r="F116" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G116" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H116" t="s">
         <v>17</v>
@@ -5759,10 +5753,10 @@
         <v>126</v>
       </c>
       <c r="F117" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G117" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
@@ -5785,10 +5779,10 @@
         <v>127</v>
       </c>
       <c r="F118" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G118" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
@@ -5811,10 +5805,10 @@
         <v>128</v>
       </c>
       <c r="F119" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G119" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H119" t="s">
         <v>17</v>
@@ -5828,7 +5822,7 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C120" t="s">
         <v>17</v>
@@ -5840,7 +5834,7 @@
         <v>129</v>
       </c>
       <c r="F120" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G120" t="s">
         <v>5</v>
@@ -5866,7 +5860,7 @@
         <v>130</v>
       </c>
       <c r="F121" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G121" t="s">
         <v>5</v>
@@ -5918,10 +5912,10 @@
         <v>132</v>
       </c>
       <c r="F123" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G123" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H123" t="s">
         <v>17</v>
@@ -5944,10 +5938,10 @@
         <v>133</v>
       </c>
       <c r="F124" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G124" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H124" t="s">
         <v>17</v>
@@ -5970,10 +5964,10 @@
         <v>134</v>
       </c>
       <c r="F125" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G125" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H125" t="s">
         <v>17</v>
@@ -5996,21 +5990,24 @@
         <v>135</v>
       </c>
       <c r="F126" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>699</v>
       </c>
       <c r="C127" t="s">
         <v>17</v>
@@ -6022,10 +6019,10 @@
         <v>136</v>
       </c>
       <c r="F127" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G127" t="s">
-        <v>5</v>
+        <v>609</v>
       </c>
       <c r="H127" t="s">
         <v>17</v>
@@ -6039,7 +6036,7 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C128" t="s">
         <v>17</v>
@@ -6051,10 +6048,10 @@
         <v>137</v>
       </c>
       <c r="F128" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G128" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H128" t="s">
         <v>17</v>
@@ -6063,12 +6060,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
-      <c r="A129" t="s">
-        <v>138</v>
-      </c>
+    <row r="129" spans="2:9">
       <c r="B129" t="s">
-        <v>703</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
         <v>17</v>
@@ -6080,19 +6074,19 @@
         <v>138</v>
       </c>
       <c r="F129" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G129" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H129" t="s">
-        <v>17</v>
+        <v>643</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="2:9">
       <c r="B130" t="s">
         <v>17</v>
       </c>
@@ -6106,19 +6100,19 @@
         <v>139</v>
       </c>
       <c r="F130" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G130" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H130" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="2:9">
       <c r="B131" t="s">
         <v>17</v>
       </c>
@@ -6132,19 +6126,19 @@
         <v>140</v>
       </c>
       <c r="F131" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G131" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H131" t="s">
-        <v>647</v>
+        <v>17</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="2:9">
       <c r="B132" t="s">
         <v>17</v>
       </c>
@@ -6158,10 +6152,10 @@
         <v>141</v>
       </c>
       <c r="F132" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G132" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H132" t="s">
         <v>17</v>
@@ -6170,7 +6164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="2:9">
       <c r="B133" t="s">
         <v>17</v>
       </c>
@@ -6184,10 +6178,10 @@
         <v>142</v>
       </c>
       <c r="F133" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G133" t="s">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="H133" t="s">
         <v>17</v>
@@ -6196,7 +6190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="2:9">
       <c r="B134" t="s">
         <v>17</v>
       </c>
@@ -6210,7 +6204,7 @@
         <v>143</v>
       </c>
       <c r="F134" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
@@ -6222,7 +6216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="2:9">
       <c r="B135" t="s">
         <v>17</v>
       </c>
@@ -6236,7 +6230,7 @@
         <v>144</v>
       </c>
       <c r="F135" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
@@ -6248,7 +6242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="2:9">
       <c r="B136" t="s">
         <v>17</v>
       </c>
@@ -6262,7 +6256,7 @@
         <v>145</v>
       </c>
       <c r="F136" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G136" t="s">
         <v>5</v>
@@ -6274,7 +6268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="2:9">
       <c r="B137" t="s">
         <v>17</v>
       </c>
@@ -6288,7 +6282,7 @@
         <v>146</v>
       </c>
       <c r="F137" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G137" t="s">
         <v>5</v>
@@ -6300,7 +6294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="2:9">
       <c r="B138" t="s">
         <v>17</v>
       </c>
@@ -6314,19 +6308,19 @@
         <v>147</v>
       </c>
       <c r="F138" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G138" t="s">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>17</v>
+        <v>645</v>
       </c>
       <c r="I138" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="2:9">
       <c r="B139" t="s">
         <v>17</v>
       </c>
@@ -6340,19 +6334,19 @@
         <v>148</v>
       </c>
       <c r="F139" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="2:9">
       <c r="B140" t="s">
         <v>17</v>
       </c>
@@ -6366,19 +6360,19 @@
         <v>149</v>
       </c>
       <c r="F140" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>650</v>
+        <v>149</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="2:9">
       <c r="B141" t="s">
         <v>17</v>
       </c>
@@ -6392,19 +6386,19 @@
         <v>150</v>
       </c>
       <c r="F141" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G141" t="s">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>150</v>
+        <v>647</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="2:9">
       <c r="B142" t="s">
         <v>17</v>
       </c>
@@ -6418,65 +6412,62 @@
         <v>151</v>
       </c>
       <c r="F142" t="s">
+        <v>482</v>
+      </c>
+      <c r="G142" t="s">
+        <v>612</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" t="s">
+        <v>736</v>
+      </c>
+      <c r="F143" t="s">
+        <v>483</v>
+      </c>
+      <c r="G143" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143" t="s">
+        <v>102</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" t="s">
+        <v>152</v>
+      </c>
+      <c r="F144" t="s">
         <v>484</v>
       </c>
-      <c r="G142" t="s">
-        <v>5</v>
-      </c>
-      <c r="H142" t="s">
-        <v>151</v>
-      </c>
-      <c r="I142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="B143" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" t="s">
-        <v>152</v>
-      </c>
-      <c r="F143" t="s">
-        <v>485</v>
-      </c>
-      <c r="G143" t="s">
-        <v>5</v>
-      </c>
-      <c r="H143" t="s">
-        <v>651</v>
-      </c>
-      <c r="I143" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="B144" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" t="s">
-        <v>153</v>
-      </c>
-      <c r="F144" t="s">
-        <v>486</v>
-      </c>
       <c r="G144" t="s">
-        <v>616</v>
+        <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -6493,22 +6484,25 @@
         <v>17</v>
       </c>
       <c r="E145" t="s">
-        <v>740</v>
+        <v>153</v>
       </c>
       <c r="F145" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G145" t="s">
-        <v>5</v>
+        <v>612</v>
       </c>
       <c r="H145" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:9">
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
       <c r="C146" t="s">
         <v>17</v>
       </c>
@@ -6519,13 +6513,13 @@
         <v>154</v>
       </c>
       <c r="F146" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G146" t="s">
-        <v>5</v>
+        <v>612</v>
       </c>
       <c r="H146" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -6545,10 +6539,10 @@
         <v>155</v>
       </c>
       <c r="F147" t="s">
-        <v>489</v>
+        <v>17</v>
       </c>
       <c r="G147" t="s">
-        <v>616</v>
+        <v>5</v>
       </c>
       <c r="H147" t="s">
         <v>17</v>
@@ -6571,10 +6565,10 @@
         <v>156</v>
       </c>
       <c r="F148" t="s">
-        <v>490</v>
+        <v>17</v>
       </c>
       <c r="G148" t="s">
-        <v>616</v>
+        <v>5</v>
       </c>
       <c r="H148" t="s">
         <v>17</v>
@@ -6584,8 +6578,11 @@
       </c>
     </row>
     <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
@@ -6597,10 +6594,10 @@
         <v>157</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="G149" t="s">
-        <v>5</v>
+        <v>609</v>
       </c>
       <c r="H149" t="s">
         <v>17</v>
@@ -6623,7 +6620,7 @@
         <v>158</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>488</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
@@ -6636,11 +6633,8 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" t="s">
-        <v>159</v>
-      </c>
       <c r="B151" t="s">
-        <v>491</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
         <v>17</v>
@@ -6652,10 +6646,10 @@
         <v>159</v>
       </c>
       <c r="F151" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G151" t="s">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="H151" t="s">
         <v>17</v>
@@ -6678,7 +6672,7 @@
         <v>160</v>
       </c>
       <c r="F152" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
@@ -6704,7 +6698,7 @@
         <v>161</v>
       </c>
       <c r="F153" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
@@ -6730,7 +6724,7 @@
         <v>162</v>
       </c>
       <c r="F154" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
@@ -6756,7 +6750,7 @@
         <v>163</v>
       </c>
       <c r="F155" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
@@ -6769,8 +6763,11 @@
       </c>
     </row>
     <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>677</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
@@ -6782,7 +6779,7 @@
         <v>164</v>
       </c>
       <c r="F156" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
@@ -6795,8 +6792,11 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="B157" t="s">
-        <v>17</v>
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
@@ -6808,7 +6808,7 @@
         <v>165</v>
       </c>
       <c r="F157" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
@@ -6821,11 +6821,8 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" t="s">
-        <v>166</v>
-      </c>
       <c r="B158" t="s">
-        <v>681</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
@@ -6837,7 +6834,7 @@
         <v>166</v>
       </c>
       <c r="F158" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G158" t="s">
         <v>5</v>
@@ -6854,7 +6851,7 @@
         <v>167</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
@@ -6866,7 +6863,7 @@
         <v>167</v>
       </c>
       <c r="F159" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G159" t="s">
         <v>5</v>
@@ -6892,24 +6889,21 @@
         <v>168</v>
       </c>
       <c r="F160" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G160" t="s">
-        <v>5</v>
+        <v>610</v>
       </c>
       <c r="H160" t="s">
-        <v>17</v>
+        <v>648</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" t="s">
-        <v>169</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>700</v>
+      <c r="B161" t="s">
+        <v>17</v>
       </c>
       <c r="C161" t="s">
         <v>17</v>
@@ -6921,13 +6915,13 @@
         <v>169</v>
       </c>
       <c r="F161" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G161" t="s">
-        <v>5</v>
+        <v>610</v>
       </c>
       <c r="H161" t="s">
-        <v>17</v>
+        <v>649</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -6947,13 +6941,13 @@
         <v>170</v>
       </c>
       <c r="F162" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G162" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H162" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I162" t="s">
         <v>17</v>
@@ -6973,13 +6967,13 @@
         <v>171</v>
       </c>
       <c r="F163" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G163" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H163" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I163" t="s">
         <v>17</v>
@@ -6999,16 +6993,13 @@
         <v>172</v>
       </c>
       <c r="F164" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G164" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H164" t="s">
-        <v>653</v>
-      </c>
-      <c r="I164" t="s">
-        <v>17</v>
+        <v>651</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7025,13 +7016,13 @@
         <v>173</v>
       </c>
       <c r="F165" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G165" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H165" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -7051,13 +7042,16 @@
         <v>174</v>
       </c>
       <c r="F166" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G166" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H166" t="s">
-        <v>655</v>
+        <v>651</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7074,21 +7068,24 @@
         <v>175</v>
       </c>
       <c r="F167" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G167" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H167" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>176</v>
+      </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>746</v>
       </c>
       <c r="C168" t="s">
         <v>17</v>
@@ -7100,13 +7097,13 @@
         <v>176</v>
       </c>
       <c r="F168" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G168" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H168" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I168" t="s">
         <v>17</v>
@@ -7126,24 +7123,21 @@
         <v>177</v>
       </c>
       <c r="F169" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G169" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H169" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I169" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" t="s">
-        <v>178</v>
-      </c>
       <c r="B170" t="s">
-        <v>750</v>
+        <v>17</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
@@ -7155,13 +7149,13 @@
         <v>178</v>
       </c>
       <c r="F170" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G170" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H170" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I170" t="s">
         <v>17</v>
@@ -7181,13 +7175,13 @@
         <v>179</v>
       </c>
       <c r="F171" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G171" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H171" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -7207,13 +7201,13 @@
         <v>180</v>
       </c>
       <c r="F172" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G172" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H172" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I172" t="s">
         <v>17</v>
@@ -7233,13 +7227,13 @@
         <v>181</v>
       </c>
       <c r="F173" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G173" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H173" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I173" t="s">
         <v>17</v>
@@ -7259,13 +7253,13 @@
         <v>182</v>
       </c>
       <c r="F174" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G174" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H174" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I174" t="s">
         <v>17</v>
@@ -7285,13 +7279,13 @@
         <v>183</v>
       </c>
       <c r="F175" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G175" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H175" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I175" t="s">
         <v>17</v>
@@ -7311,13 +7305,13 @@
         <v>184</v>
       </c>
       <c r="F176" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G176" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H176" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="I176" t="s">
         <v>17</v>
@@ -7337,13 +7331,13 @@
         <v>185</v>
       </c>
       <c r="F177" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G177" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H177" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I177" t="s">
         <v>17</v>
@@ -7363,13 +7357,13 @@
         <v>186</v>
       </c>
       <c r="F178" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G178" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H178" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I178" t="s">
         <v>17</v>
@@ -7389,13 +7383,13 @@
         <v>187</v>
       </c>
       <c r="F179" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G179" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H179" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I179" t="s">
         <v>17</v>
@@ -7415,13 +7409,13 @@
         <v>188</v>
       </c>
       <c r="F180" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G180" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H180" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I180" t="s">
         <v>17</v>
@@ -7441,13 +7435,13 @@
         <v>189</v>
       </c>
       <c r="F181" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G181" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H181" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I181" t="s">
         <v>17</v>
@@ -7467,13 +7461,13 @@
         <v>190</v>
       </c>
       <c r="F182" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G182" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H182" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I182" t="s">
         <v>17</v>
@@ -7493,13 +7487,13 @@
         <v>191</v>
       </c>
       <c r="F183" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G183" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H183" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I183" t="s">
         <v>17</v>
@@ -7519,13 +7513,13 @@
         <v>192</v>
       </c>
       <c r="F184" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G184" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H184" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I184" t="s">
         <v>17</v>
@@ -7545,13 +7539,13 @@
         <v>193</v>
       </c>
       <c r="F185" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G185" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H185" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I185" t="s">
         <v>17</v>
@@ -7571,13 +7565,13 @@
         <v>194</v>
       </c>
       <c r="F186" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G186" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H186" t="s">
-        <v>655</v>
+        <v>17</v>
       </c>
       <c r="I186" t="s">
         <v>17</v>
@@ -7597,13 +7591,13 @@
         <v>195</v>
       </c>
       <c r="F187" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G187" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H187" t="s">
-        <v>655</v>
+        <v>17</v>
       </c>
       <c r="I187" t="s">
         <v>17</v>
@@ -7623,13 +7617,13 @@
         <v>196</v>
       </c>
       <c r="F188" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G188" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="H188" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="I188" t="s">
         <v>17</v>
@@ -7646,16 +7640,16 @@
         <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F189" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G189" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="H189" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="I189" t="s">
         <v>17</v>
@@ -7672,16 +7666,16 @@
         <v>17</v>
       </c>
       <c r="E190" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F190" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G190" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H190" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -7698,16 +7692,16 @@
         <v>17</v>
       </c>
       <c r="E191" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F191" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G191" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H191" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I191" t="s">
         <v>17</v>
@@ -7727,10 +7721,10 @@
         <v>202</v>
       </c>
       <c r="F192" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G192" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H192" t="s">
         <v>202</v>
@@ -7750,16 +7744,16 @@
         <v>17</v>
       </c>
       <c r="E193" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F193" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G193" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H193" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I193" t="s">
         <v>17</v>
@@ -7776,16 +7770,16 @@
         <v>17</v>
       </c>
       <c r="E194" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F194" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G194" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H194" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I194" t="s">
         <v>17</v>
@@ -7802,16 +7796,16 @@
         <v>17</v>
       </c>
       <c r="E195" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F195" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G195" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H195" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I195" t="s">
         <v>17</v>
@@ -7831,10 +7825,10 @@
         <v>208</v>
       </c>
       <c r="F196" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G196" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H196" t="s">
         <v>208</v>
@@ -7857,13 +7851,13 @@
         <v>209</v>
       </c>
       <c r="F197" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G197" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H197" t="s">
-        <v>209</v>
+        <v>652</v>
       </c>
       <c r="I197" t="s">
         <v>17</v>
@@ -7883,10 +7877,10 @@
         <v>210</v>
       </c>
       <c r="F198" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G198" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H198" t="s">
         <v>210</v>
@@ -7909,13 +7903,13 @@
         <v>211</v>
       </c>
       <c r="F199" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G199" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H199" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I199" t="s">
         <v>17</v>
@@ -7935,13 +7929,13 @@
         <v>212</v>
       </c>
       <c r="F200" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G200" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H200" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="I200" t="s">
         <v>17</v>
@@ -7961,13 +7955,13 @@
         <v>213</v>
       </c>
       <c r="F201" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G201" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H201" t="s">
-        <v>656</v>
+        <v>7</v>
       </c>
       <c r="I201" t="s">
         <v>17</v>
@@ -7987,10 +7981,10 @@
         <v>214</v>
       </c>
       <c r="F202" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G202" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H202" t="s">
         <v>7</v>
@@ -8013,10 +8007,10 @@
         <v>215</v>
       </c>
       <c r="F203" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G203" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H203" t="s">
         <v>7</v>
@@ -8039,10 +8033,10 @@
         <v>216</v>
       </c>
       <c r="F204" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G204" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H204" t="s">
         <v>7</v>
@@ -8065,10 +8059,10 @@
         <v>217</v>
       </c>
       <c r="F205" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G205" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H205" t="s">
         <v>7</v>
@@ -8091,10 +8085,10 @@
         <v>218</v>
       </c>
       <c r="F206" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G206" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H206" t="s">
         <v>7</v>
@@ -8117,10 +8111,10 @@
         <v>219</v>
       </c>
       <c r="F207" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G207" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H207" t="s">
         <v>7</v>
@@ -8143,19 +8137,19 @@
         <v>220</v>
       </c>
       <c r="F208" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G208" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H208" t="s">
-        <v>7</v>
+        <v>653</v>
       </c>
       <c r="I208" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="2:9">
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
         <v>17</v>
       </c>
@@ -8169,19 +8163,19 @@
         <v>221</v>
       </c>
       <c r="F209" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G209" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H209" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I209" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="2:9">
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
         <v>17</v>
       </c>
@@ -8195,19 +8189,19 @@
         <v>222</v>
       </c>
       <c r="F210" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G210" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H210" t="s">
-        <v>657</v>
+        <v>7</v>
       </c>
       <c r="I210" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="2:9">
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
         <v>17</v>
       </c>
@@ -8221,19 +8215,19 @@
         <v>223</v>
       </c>
       <c r="F211" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G211" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="H211" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I211" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="2:9">
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
         <v>17</v>
       </c>
@@ -8247,10 +8241,10 @@
         <v>224</v>
       </c>
       <c r="F212" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G212" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H212" t="s">
         <v>7</v>
@@ -8259,7 +8253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="2:9">
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
         <v>17</v>
       </c>
@@ -8273,10 +8267,10 @@
         <v>225</v>
       </c>
       <c r="F213" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G213" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H213" t="s">
         <v>7</v>
@@ -8285,7 +8279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="2:9">
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
         <v>17</v>
       </c>
@@ -8299,10 +8293,10 @@
         <v>226</v>
       </c>
       <c r="F214" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G214" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H214" t="s">
         <v>7</v>
@@ -8311,7 +8305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="2:9">
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
         <v>17</v>
       </c>
@@ -8325,10 +8319,10 @@
         <v>227</v>
       </c>
       <c r="F215" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G215" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H215" t="s">
         <v>7</v>
@@ -8337,7 +8331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="2:9">
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
         <v>17</v>
       </c>
@@ -8351,10 +8345,10 @@
         <v>228</v>
       </c>
       <c r="F216" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G216" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H216" t="s">
         <v>7</v>
@@ -8363,7 +8357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="2:9">
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
         <v>17</v>
       </c>
@@ -8377,10 +8371,10 @@
         <v>229</v>
       </c>
       <c r="F217" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G217" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H217" t="s">
         <v>7</v>
@@ -8389,7 +8383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="2:9">
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
         <v>17</v>
       </c>
@@ -8403,10 +8397,10 @@
         <v>230</v>
       </c>
       <c r="F218" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G218" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H218" t="s">
         <v>7</v>
@@ -8415,7 +8409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="2:9">
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
         <v>17</v>
       </c>
@@ -8429,19 +8423,19 @@
         <v>231</v>
       </c>
       <c r="F219" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G219" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H219" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I219" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="2:9">
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
         <v>17</v>
       </c>
@@ -8455,19 +8449,19 @@
         <v>232</v>
       </c>
       <c r="F220" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G220" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="H220" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I220" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="2:9">
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
         <v>17</v>
       </c>
@@ -8481,10 +8475,10 @@
         <v>233</v>
       </c>
       <c r="F221" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G221" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H221" t="s">
         <v>17</v>
@@ -8493,7 +8487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="2:9">
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
         <v>17</v>
       </c>
@@ -8507,19 +8501,16 @@
         <v>234</v>
       </c>
       <c r="F222" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G222" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="H222" t="s">
-        <v>17</v>
-      </c>
-      <c r="I222" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
         <v>17</v>
       </c>
@@ -8533,62 +8524,71 @@
         <v>235</v>
       </c>
       <c r="F223" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G223" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="H223" t="s">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="I223" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="2:9">
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>236</v>
+      </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>706</v>
       </c>
       <c r="C224" t="s">
         <v>17</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E224" t="s">
         <v>236</v>
       </c>
       <c r="F224" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G224" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H224" t="s">
-        <v>236</v>
+        <v>17</v>
+      </c>
+      <c r="I224" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>237</v>
+      </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>707</v>
       </c>
       <c r="C225" t="s">
         <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E225" t="s">
         <v>237</v>
       </c>
       <c r="F225" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G225" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H225" t="s">
-        <v>658</v>
+        <v>17</v>
       </c>
       <c r="I225" t="s">
         <v>17</v>
@@ -8599,7 +8599,7 @@
         <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C226" t="s">
         <v>17</v>
@@ -8611,10 +8611,10 @@
         <v>238</v>
       </c>
       <c r="F226" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G226" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H226" t="s">
         <v>17</v>
@@ -8628,7 +8628,7 @@
         <v>239</v>
       </c>
       <c r="B227" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="C227" t="s">
         <v>17</v>
@@ -8640,10 +8640,10 @@
         <v>239</v>
       </c>
       <c r="F227" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G227" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H227" t="s">
         <v>17</v>
@@ -8657,7 +8657,7 @@
         <v>240</v>
       </c>
       <c r="B228" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="C228" t="s">
         <v>17</v>
@@ -8669,10 +8669,10 @@
         <v>240</v>
       </c>
       <c r="F228" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G228" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H228" t="s">
         <v>17</v>
@@ -8686,7 +8686,7 @@
         <v>241</v>
       </c>
       <c r="B229" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="C229" t="s">
         <v>17</v>
@@ -8698,10 +8698,10 @@
         <v>241</v>
       </c>
       <c r="F229" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G229" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H229" t="s">
         <v>17</v>
@@ -8711,26 +8711,23 @@
       </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" t="s">
-        <v>242</v>
-      </c>
       <c r="B230" t="s">
-        <v>713</v>
+        <v>17</v>
       </c>
       <c r="C230" t="s">
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E230" t="s">
         <v>242</v>
       </c>
       <c r="F230" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G230" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H230" t="s">
         <v>17</v>
@@ -8740,26 +8737,23 @@
       </c>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" t="s">
-        <v>243</v>
-      </c>
       <c r="B231" t="s">
-        <v>712</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
         <v>17</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E231" t="s">
         <v>243</v>
       </c>
       <c r="F231" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G231" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H231" t="s">
         <v>17</v>
@@ -8782,10 +8776,10 @@
         <v>244</v>
       </c>
       <c r="F232" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G232" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H232" t="s">
         <v>17</v>
@@ -8808,10 +8802,10 @@
         <v>245</v>
       </c>
       <c r="F233" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G233" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H233" t="s">
         <v>17</v>
@@ -8834,10 +8828,10 @@
         <v>246</v>
       </c>
       <c r="F234" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G234" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H234" t="s">
         <v>17</v>
@@ -8860,10 +8854,10 @@
         <v>247</v>
       </c>
       <c r="F235" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G235" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H235" t="s">
         <v>17</v>
@@ -8886,10 +8880,10 @@
         <v>248</v>
       </c>
       <c r="F236" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G236" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H236" t="s">
         <v>17</v>
@@ -8912,10 +8906,10 @@
         <v>249</v>
       </c>
       <c r="F237" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G237" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H237" t="s">
         <v>17</v>
@@ -8938,10 +8932,10 @@
         <v>250</v>
       </c>
       <c r="F238" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G238" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H238" t="s">
         <v>17</v>
@@ -8964,10 +8958,10 @@
         <v>251</v>
       </c>
       <c r="F239" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G239" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H239" t="s">
         <v>17</v>
@@ -8990,10 +8984,10 @@
         <v>252</v>
       </c>
       <c r="F240" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G240" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H240" t="s">
         <v>17</v>
@@ -9016,21 +9010,24 @@
         <v>253</v>
       </c>
       <c r="F241" t="s">
-        <v>577</v>
+        <v>17</v>
       </c>
       <c r="G241" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H241" t="s">
-        <v>17</v>
+        <v>655</v>
       </c>
       <c r="I241" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>254</v>
+      </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="C242" t="s">
         <v>17</v>
@@ -9042,42 +9039,45 @@
         <v>254</v>
       </c>
       <c r="F242" t="s">
-        <v>578</v>
+        <v>348</v>
       </c>
       <c r="G242" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H242" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="I242" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>255</v>
+      </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>669</v>
       </c>
       <c r="C243" t="s">
         <v>17</v>
       </c>
       <c r="D243" t="s">
-        <v>17</v>
+        <v>761</v>
       </c>
       <c r="E243" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="F243" t="s">
         <v>17</v>
       </c>
       <c r="G243" t="s">
-        <v>614</v>
+        <v>5</v>
       </c>
       <c r="H243" t="s">
-        <v>659</v>
+        <v>17</v>
       </c>
       <c r="I243" t="s">
-        <v>17</v>
+        <v>703</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -9085,28 +9085,28 @@
         <v>256</v>
       </c>
       <c r="B244" t="s">
-        <v>350</v>
+        <v>670</v>
       </c>
       <c r="C244" t="s">
         <v>17</v>
       </c>
       <c r="D244" t="s">
-        <v>17</v>
+        <v>761</v>
       </c>
       <c r="E244" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F244" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="G244" t="s">
-        <v>617</v>
+        <v>5</v>
       </c>
       <c r="H244" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="I244" t="s">
-        <v>17</v>
+        <v>703</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -9114,16 +9114,16 @@
         <v>257</v>
       </c>
       <c r="B245" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C245" t="s">
         <v>17</v>
       </c>
       <c r="D245" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E245" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F245" t="s">
         <v>17</v>
@@ -9135,7 +9135,7 @@
         <v>17</v>
       </c>
       <c r="I245" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -9143,16 +9143,16 @@
         <v>258</v>
       </c>
       <c r="B246" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C246" t="s">
         <v>17</v>
       </c>
       <c r="D246" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E246" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F246" t="s">
         <v>17</v>
@@ -9164,53 +9164,53 @@
         <v>17</v>
       </c>
       <c r="I246" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>259</v>
+        <v>701</v>
       </c>
       <c r="B247" t="s">
-        <v>675</v>
+        <v>744</v>
       </c>
       <c r="C247" t="s">
         <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>765</v>
+        <v>17</v>
       </c>
       <c r="E247" t="s">
-        <v>205</v>
+        <v>701</v>
       </c>
       <c r="F247" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="G247" t="s">
-        <v>5</v>
+        <v>610</v>
       </c>
       <c r="H247" t="s">
         <v>17</v>
       </c>
       <c r="I247" t="s">
-        <v>707</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="C248" t="s">
         <v>17</v>
       </c>
       <c r="D248" t="s">
-        <v>765</v>
+        <v>7</v>
       </c>
       <c r="E248" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="F248" t="s">
         <v>17</v>
@@ -9222,36 +9222,33 @@
         <v>17</v>
       </c>
       <c r="I248" t="s">
-        <v>707</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
       <c r="B249" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C249" t="s">
         <v>17</v>
       </c>
-      <c r="D249" t="s">
-        <v>17</v>
-      </c>
       <c r="E249" t="s">
-        <v>705</v>
+        <v>260</v>
       </c>
       <c r="F249" t="s">
-        <v>579</v>
+        <v>17</v>
       </c>
       <c r="G249" t="s">
-        <v>614</v>
+        <v>5</v>
       </c>
       <c r="H249" t="s">
         <v>17</v>
       </c>
       <c r="I249" t="s">
-        <v>17</v>
+        <v>679</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -9259,7 +9256,7 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>704</v>
+        <v>576</v>
       </c>
       <c r="C250" t="s">
         <v>17</v>
@@ -9271,7 +9268,7 @@
         <v>261</v>
       </c>
       <c r="F250" t="s">
-        <v>17</v>
+        <v>576</v>
       </c>
       <c r="G250" t="s">
         <v>5</v>
@@ -9284,13 +9281,13 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" t="s">
-        <v>682</v>
-      </c>
       <c r="B251" t="s">
-        <v>751</v>
+        <v>17</v>
       </c>
       <c r="C251" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" t="s">
         <v>17</v>
       </c>
       <c r="E251" t="s">
@@ -9306,27 +9303,24 @@
         <v>17</v>
       </c>
       <c r="I251" t="s">
-        <v>683</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" t="s">
-        <v>263</v>
-      </c>
       <c r="B252" t="s">
-        <v>580</v>
+        <v>17</v>
       </c>
       <c r="C252" t="s">
         <v>17</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E252" t="s">
         <v>263</v>
       </c>
       <c r="F252" t="s">
-        <v>580</v>
+        <v>17</v>
       </c>
       <c r="G252" t="s">
         <v>5</v>
@@ -9417,8 +9411,11 @@
       </c>
     </row>
     <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>267</v>
+      </c>
       <c r="B256" t="s">
-        <v>17</v>
+        <v>704</v>
       </c>
       <c r="C256" t="s">
         <v>17</v>
@@ -9428,9 +9425,6 @@
       </c>
       <c r="E256" t="s">
         <v>267</v>
-      </c>
-      <c r="F256" t="s">
-        <v>17</v>
       </c>
       <c r="G256" t="s">
         <v>5</v>
@@ -9473,13 +9467,13 @@
         <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>708</v>
+        <v>577</v>
       </c>
       <c r="C258" t="s">
         <v>17</v>
       </c>
       <c r="D258" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E258" t="s">
         <v>269</v>
@@ -9495,46 +9489,43 @@
       </c>
     </row>
     <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>270</v>
+      </c>
       <c r="B259" t="s">
-        <v>17</v>
-      </c>
-      <c r="C259" t="s">
-        <v>17</v>
+        <v>578</v>
       </c>
       <c r="D259" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="E259" t="s">
         <v>270</v>
       </c>
-      <c r="F259" t="s">
-        <v>17</v>
-      </c>
       <c r="G259" t="s">
         <v>5</v>
       </c>
       <c r="H259" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="I259" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:9">
-      <c r="A260" t="s">
-        <v>271</v>
-      </c>
       <c r="B260" t="s">
-        <v>581</v>
+        <v>17</v>
       </c>
       <c r="C260" t="s">
         <v>17</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E260" t="s">
         <v>271</v>
+      </c>
+      <c r="F260" t="s">
+        <v>579</v>
       </c>
       <c r="G260" t="s">
         <v>5</v>
@@ -9551,10 +9542,13 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>582</v>
+        <v>580</v>
+      </c>
+      <c r="C261" t="s">
+        <v>17</v>
       </c>
       <c r="D261" t="s">
-        <v>272</v>
+        <v>7</v>
       </c>
       <c r="E261" t="s">
         <v>272</v>
@@ -9563,27 +9557,27 @@
         <v>5</v>
       </c>
       <c r="H261" t="s">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="I261" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>273</v>
+      </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>581</v>
       </c>
       <c r="C262" t="s">
         <v>17</v>
       </c>
       <c r="D262" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E262" t="s">
         <v>273</v>
-      </c>
-      <c r="F262" t="s">
-        <v>583</v>
       </c>
       <c r="G262" t="s">
         <v>5</v>
@@ -9600,7 +9594,7 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C263" t="s">
         <v>17</v>
@@ -9612,27 +9606,18 @@
         <v>274</v>
       </c>
       <c r="G263" t="s">
-        <v>5</v>
+        <v>610</v>
       </c>
       <c r="H263" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="I263" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:9">
-      <c r="A264" t="s">
-        <v>275</v>
-      </c>
-      <c r="B264" t="s">
-        <v>585</v>
-      </c>
-      <c r="C264" t="s">
-        <v>17</v>
-      </c>
       <c r="D264" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E264" t="s">
         <v>275</v>
@@ -9652,7 +9637,7 @@
         <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C265" t="s">
         <v>17</v>
@@ -9664,22 +9649,31 @@
         <v>276</v>
       </c>
       <c r="G265" t="s">
-        <v>614</v>
+        <v>5</v>
       </c>
       <c r="H265" t="s">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="I265" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:9">
+      <c r="B266" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" t="s">
+        <v>17</v>
+      </c>
       <c r="D266" t="s">
         <v>17</v>
       </c>
       <c r="E266" t="s">
         <v>277</v>
       </c>
+      <c r="F266" t="s">
+        <v>17</v>
+      </c>
       <c r="G266" t="s">
         <v>5</v>
       </c>
@@ -9691,21 +9685,21 @@
       </c>
     </row>
     <row r="267" spans="1:9">
-      <c r="A267" t="s">
-        <v>278</v>
-      </c>
       <c r="B267" t="s">
-        <v>587</v>
+        <v>17</v>
       </c>
       <c r="C267" t="s">
         <v>17</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E267" t="s">
         <v>278</v>
       </c>
+      <c r="F267" t="s">
+        <v>17</v>
+      </c>
       <c r="G267" t="s">
         <v>5</v>
       </c>
@@ -9717,21 +9711,21 @@
       </c>
     </row>
     <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>279</v>
+      </c>
       <c r="B268" t="s">
-        <v>17</v>
+        <v>698</v>
       </c>
       <c r="C268" t="s">
         <v>17</v>
       </c>
       <c r="D268" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E268" t="s">
         <v>279</v>
       </c>
-      <c r="F268" t="s">
-        <v>17</v>
-      </c>
       <c r="G268" t="s">
         <v>5</v>
       </c>
@@ -9743,20 +9737,20 @@
       </c>
     </row>
     <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>280</v>
+      </c>
       <c r="B269" t="s">
-        <v>17</v>
+        <v>697</v>
       </c>
       <c r="C269" t="s">
         <v>17</v>
       </c>
       <c r="D269" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E269" t="s">
         <v>280</v>
-      </c>
-      <c r="F269" t="s">
-        <v>17</v>
       </c>
       <c r="G269" t="s">
         <v>5</v>
@@ -9773,7 +9767,7 @@
         <v>281</v>
       </c>
       <c r="B270" t="s">
-        <v>702</v>
+        <v>584</v>
       </c>
       <c r="C270" t="s">
         <v>17</v>
@@ -9799,7 +9793,7 @@
         <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>701</v>
+        <v>585</v>
       </c>
       <c r="C271" t="s">
         <v>17</v>
@@ -9825,7 +9819,7 @@
         <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C272" t="s">
         <v>17</v>
@@ -9851,16 +9845,19 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>589</v>
+        <v>734</v>
       </c>
       <c r="C273" t="s">
         <v>17</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E273" t="s">
         <v>284</v>
+      </c>
+      <c r="F273" t="s">
+        <v>17</v>
       </c>
       <c r="G273" t="s">
         <v>5</v>
@@ -9877,13 +9874,13 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C274" t="s">
         <v>17</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E274" t="s">
         <v>285</v>
@@ -9892,7 +9889,7 @@
         <v>5</v>
       </c>
       <c r="H274" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I274" t="s">
         <v>17</v>
@@ -9902,23 +9899,20 @@
       <c r="A275" t="s">
         <v>286</v>
       </c>
-      <c r="B275" t="s">
-        <v>738</v>
+      <c r="B275" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="C275" t="s">
         <v>17</v>
       </c>
       <c r="D275" t="s">
-        <v>17</v>
+        <v>658</v>
       </c>
       <c r="E275" t="s">
         <v>286</v>
       </c>
-      <c r="F275" t="s">
-        <v>17</v>
-      </c>
       <c r="G275" t="s">
-        <v>5</v>
+        <v>610</v>
       </c>
       <c r="H275" t="s">
         <v>17</v>
@@ -9931,14 +9925,14 @@
       <c r="A276" t="s">
         <v>287</v>
       </c>
-      <c r="B276" t="s">
-        <v>591</v>
+      <c r="B276" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="C276" t="s">
         <v>17</v>
       </c>
       <c r="D276" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E276" t="s">
         <v>287</v>
@@ -9947,30 +9941,27 @@
         <v>5</v>
       </c>
       <c r="H276" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="I276" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:9">
-      <c r="A277" t="s">
-        <v>288</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>687</v>
+      <c r="B277" t="s">
+        <v>17</v>
       </c>
       <c r="C277" t="s">
         <v>17</v>
       </c>
       <c r="D277" t="s">
-        <v>662</v>
+        <v>17</v>
       </c>
       <c r="E277" t="s">
         <v>288</v>
       </c>
       <c r="G277" t="s">
-        <v>614</v>
+        <v>5</v>
       </c>
       <c r="H277" t="s">
         <v>17</v>
@@ -9980,11 +9971,8 @@
       </c>
     </row>
     <row r="278" spans="1:9">
-      <c r="A278" t="s">
-        <v>289</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>731</v>
+      <c r="B278" t="s">
+        <v>17</v>
       </c>
       <c r="C278" t="s">
         <v>17</v>
@@ -9995,11 +9983,14 @@
       <c r="E278" t="s">
         <v>289</v>
       </c>
+      <c r="F278" t="s">
+        <v>17</v>
+      </c>
       <c r="G278" t="s">
         <v>5</v>
       </c>
       <c r="H278" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="I278" t="s">
         <v>17</v>
@@ -10018,6 +10009,9 @@
       <c r="E279" t="s">
         <v>290</v>
       </c>
+      <c r="F279" t="s">
+        <v>17</v>
+      </c>
       <c r="G279" t="s">
         <v>5</v>
       </c>
@@ -10029,8 +10023,11 @@
       </c>
     </row>
     <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>291</v>
+      </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>588</v>
       </c>
       <c r="C280" t="s">
         <v>17</v>
@@ -10041,9 +10038,6 @@
       <c r="E280" t="s">
         <v>291</v>
       </c>
-      <c r="F280" t="s">
-        <v>17</v>
-      </c>
       <c r="G280" t="s">
         <v>5</v>
       </c>
@@ -10055,8 +10049,11 @@
       </c>
     </row>
     <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>292</v>
+      </c>
       <c r="B281" t="s">
-        <v>17</v>
+        <v>589</v>
       </c>
       <c r="C281" t="s">
         <v>17</v>
@@ -10066,9 +10063,6 @@
       </c>
       <c r="E281" t="s">
         <v>292</v>
-      </c>
-      <c r="F281" t="s">
-        <v>17</v>
       </c>
       <c r="G281" t="s">
         <v>5</v>
@@ -10084,20 +10078,20 @@
       <c r="A282" t="s">
         <v>293</v>
       </c>
-      <c r="B282" t="s">
-        <v>592</v>
+      <c r="B282" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="C282" t="s">
         <v>17</v>
       </c>
       <c r="D282" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E282" t="s">
         <v>293</v>
       </c>
       <c r="G282" t="s">
-        <v>5</v>
+        <v>610</v>
       </c>
       <c r="H282" t="s">
         <v>17</v>
@@ -10110,20 +10104,20 @@
       <c r="A283" t="s">
         <v>294</v>
       </c>
-      <c r="B283" t="s">
-        <v>593</v>
+      <c r="B283" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="C283" t="s">
         <v>17</v>
       </c>
       <c r="D283" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E283" t="s">
         <v>294</v>
       </c>
       <c r="G283" t="s">
-        <v>5</v>
+        <v>610</v>
       </c>
       <c r="H283" t="s">
         <v>17</v>
@@ -10137,7 +10131,7 @@
         <v>295</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C284" t="s">
         <v>17</v>
@@ -10149,7 +10143,7 @@
         <v>295</v>
       </c>
       <c r="G284" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H284" t="s">
         <v>17</v>
@@ -10159,23 +10153,23 @@
       </c>
     </row>
     <row r="285" spans="1:9">
-      <c r="A285" t="s">
-        <v>296</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>689</v>
+      <c r="B285" t="s">
+        <v>17</v>
       </c>
       <c r="C285" t="s">
         <v>17</v>
       </c>
       <c r="D285" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E285" t="s">
         <v>296</v>
       </c>
+      <c r="F285" t="s">
+        <v>590</v>
+      </c>
       <c r="G285" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H285" t="s">
         <v>17</v>
@@ -10185,23 +10179,23 @@
       </c>
     </row>
     <row r="286" spans="1:9">
-      <c r="A286" t="s">
-        <v>297</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>690</v>
+      <c r="B286" t="s">
+        <v>17</v>
       </c>
       <c r="C286" t="s">
         <v>17</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E286" t="s">
         <v>297</v>
       </c>
+      <c r="F286" t="s">
+        <v>591</v>
+      </c>
       <c r="G286" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H286" t="s">
         <v>17</v>
@@ -10224,10 +10218,10 @@
         <v>298</v>
       </c>
       <c r="F287" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G287" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H287" t="s">
         <v>17</v>
@@ -10250,10 +10244,10 @@
         <v>299</v>
       </c>
       <c r="F288" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G288" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H288" t="s">
         <v>17</v>
@@ -10263,23 +10257,26 @@
       </c>
     </row>
     <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>300</v>
+      </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>749</v>
       </c>
       <c r="C289" t="s">
         <v>17</v>
       </c>
       <c r="D289" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E289" t="s">
         <v>300</v>
       </c>
       <c r="F289" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G289" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H289" t="s">
         <v>17</v>
@@ -10289,23 +10286,26 @@
       </c>
     </row>
     <row r="290" spans="1:9">
+      <c r="A290" t="s">
+        <v>301</v>
+      </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>750</v>
       </c>
       <c r="C290" t="s">
         <v>17</v>
       </c>
       <c r="D290" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E290" t="s">
         <v>301</v>
       </c>
       <c r="F290" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G290" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H290" t="s">
         <v>17</v>
@@ -10319,7 +10319,7 @@
         <v>302</v>
       </c>
       <c r="B291" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C291" t="s">
         <v>17</v>
@@ -10331,10 +10331,10 @@
         <v>302</v>
       </c>
       <c r="F291" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G291" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H291" t="s">
         <v>17</v>
@@ -10348,7 +10348,7 @@
         <v>303</v>
       </c>
       <c r="B292" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C292" t="s">
         <v>17</v>
@@ -10360,10 +10360,10 @@
         <v>303</v>
       </c>
       <c r="F292" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G292" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H292" t="s">
         <v>17</v>
@@ -10377,7 +10377,7 @@
         <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C293" t="s">
         <v>17</v>
@@ -10389,10 +10389,10 @@
         <v>304</v>
       </c>
       <c r="F293" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G293" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H293" t="s">
         <v>17</v>
@@ -10406,7 +10406,7 @@
         <v>305</v>
       </c>
       <c r="B294" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C294" t="s">
         <v>17</v>
@@ -10418,10 +10418,10 @@
         <v>305</v>
       </c>
       <c r="F294" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G294" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H294" t="s">
         <v>17</v>
@@ -10435,7 +10435,7 @@
         <v>306</v>
       </c>
       <c r="B295" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C295" t="s">
         <v>17</v>
@@ -10447,10 +10447,10 @@
         <v>306</v>
       </c>
       <c r="F295" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G295" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H295" t="s">
         <v>17</v>
@@ -10464,7 +10464,7 @@
         <v>307</v>
       </c>
       <c r="B296" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C296" t="s">
         <v>17</v>
@@ -10476,10 +10476,10 @@
         <v>307</v>
       </c>
       <c r="F296" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G296" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H296" t="s">
         <v>17</v>
@@ -10493,7 +10493,7 @@
         <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C297" t="s">
         <v>17</v>
@@ -10505,10 +10505,10 @@
         <v>308</v>
       </c>
       <c r="F297" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G297" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H297" t="s">
         <v>17</v>
@@ -10518,26 +10518,23 @@
       </c>
     </row>
     <row r="298" spans="1:9">
-      <c r="A298" t="s">
-        <v>309</v>
-      </c>
       <c r="B298" t="s">
-        <v>761</v>
+        <v>17</v>
       </c>
       <c r="C298" t="s">
         <v>17</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E298" t="s">
         <v>309</v>
       </c>
       <c r="F298" t="s">
-        <v>605</v>
+        <v>17</v>
       </c>
       <c r="G298" t="s">
-        <v>614</v>
+        <v>5</v>
       </c>
       <c r="H298" t="s">
         <v>17</v>
@@ -10547,26 +10544,23 @@
       </c>
     </row>
     <row r="299" spans="1:9">
-      <c r="A299" t="s">
-        <v>310</v>
-      </c>
       <c r="B299" t="s">
-        <v>755</v>
+        <v>17</v>
       </c>
       <c r="C299" t="s">
         <v>17</v>
       </c>
       <c r="D299" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E299" t="s">
         <v>310</v>
       </c>
       <c r="F299" t="s">
-        <v>606</v>
+        <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>614</v>
+        <v>5</v>
       </c>
       <c r="H299" t="s">
         <v>17</v>
@@ -10706,14 +10700,17 @@
       </c>
     </row>
     <row r="305" spans="1:9">
+      <c r="A305" t="s">
+        <v>316</v>
+      </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>758</v>
       </c>
       <c r="C305" t="s">
         <v>17</v>
       </c>
       <c r="D305" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E305" t="s">
         <v>316</v>
@@ -10732,13 +10729,7 @@
       </c>
     </row>
     <row r="306" spans="1:9">
-      <c r="B306" t="s">
-        <v>17</v>
-      </c>
       <c r="C306" t="s">
-        <v>17</v>
-      </c>
-      <c r="D306" t="s">
         <v>17</v>
       </c>
       <c r="E306" t="s">
@@ -10758,17 +10749,14 @@
       </c>
     </row>
     <row r="307" spans="1:9">
-      <c r="A307" t="s">
-        <v>318</v>
-      </c>
       <c r="B307" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="C307" t="s">
         <v>17</v>
       </c>
       <c r="D307" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E307" t="s">
         <v>318</v>
@@ -10787,8 +10775,17 @@
       </c>
     </row>
     <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>319</v>
+      </c>
+      <c r="B308" t="s">
+        <v>759</v>
+      </c>
       <c r="C308" t="s">
         <v>17</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
       </c>
       <c r="E308" t="s">
         <v>319</v>
@@ -10837,19 +10834,19 @@
         <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>763</v>
+        <v>603</v>
       </c>
       <c r="C310" t="s">
         <v>17</v>
       </c>
       <c r="D310" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E310" t="s">
         <v>321</v>
       </c>
       <c r="F310" t="s">
-        <v>17</v>
+        <v>603</v>
       </c>
       <c r="G310" t="s">
         <v>5</v>
@@ -10892,7 +10889,7 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C312" t="s">
         <v>17</v>
@@ -10904,7 +10901,7 @@
         <v>323</v>
       </c>
       <c r="F312" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G312" t="s">
         <v>5</v>
@@ -10917,8 +10914,11 @@
       </c>
     </row>
     <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>324</v>
+      </c>
       <c r="B313" t="s">
-        <v>17</v>
+        <v>748</v>
       </c>
       <c r="C313" t="s">
         <v>17</v>
@@ -10947,7 +10947,7 @@
         <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="C314" t="s">
         <v>17</v>
@@ -10959,10 +10959,10 @@
         <v>325</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G314" t="s">
-        <v>5</v>
+        <v>613</v>
       </c>
       <c r="H314" t="s">
         <v>17</v>
@@ -10976,7 +10976,7 @@
         <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>752</v>
+        <v>665</v>
       </c>
       <c r="C315" t="s">
         <v>17</v>
@@ -10988,7 +10988,7 @@
         <v>326</v>
       </c>
       <c r="F315" t="s">
-        <v>17</v>
+        <v>606</v>
       </c>
       <c r="G315" t="s">
         <v>5</v>
@@ -11005,22 +11005,22 @@
         <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C316" t="s">
         <v>17</v>
       </c>
       <c r="D316" t="s">
-        <v>17</v>
+        <v>761</v>
       </c>
       <c r="E316" t="s">
         <v>327</v>
       </c>
       <c r="F316" t="s">
-        <v>609</v>
+        <v>17</v>
       </c>
       <c r="G316" t="s">
-        <v>617</v>
+        <v>5</v>
       </c>
       <c r="H316" t="s">
         <v>17</v>
@@ -11030,11 +11030,8 @@
       </c>
     </row>
     <row r="317" spans="1:9">
-      <c r="A317" t="s">
-        <v>328</v>
-      </c>
       <c r="B317" t="s">
-        <v>669</v>
+        <v>17</v>
       </c>
       <c r="C317" t="s">
         <v>17</v>
@@ -11046,30 +11043,24 @@
         <v>328</v>
       </c>
       <c r="F317" t="s">
-        <v>610</v>
+        <v>17</v>
       </c>
       <c r="G317" t="s">
         <v>5</v>
       </c>
-      <c r="H317" t="s">
-        <v>17</v>
-      </c>
       <c r="I317" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:9">
-      <c r="A318" t="s">
-        <v>329</v>
-      </c>
       <c r="B318" t="s">
-        <v>672</v>
+        <v>17</v>
       </c>
       <c r="C318" t="s">
         <v>17</v>
       </c>
       <c r="D318" t="s">
-        <v>765</v>
+        <v>17</v>
       </c>
       <c r="E318" t="s">
         <v>329</v>
@@ -11080,9 +11071,6 @@
       <c r="G318" t="s">
         <v>5</v>
       </c>
-      <c r="H318" t="s">
-        <v>17</v>
-      </c>
       <c r="I318" t="s">
         <v>17</v>
       </c>
@@ -11157,14 +11145,17 @@
       </c>
     </row>
     <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>333</v>
+      </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>673</v>
       </c>
       <c r="C322" t="s">
         <v>17</v>
       </c>
       <c r="D322" t="s">
-        <v>17</v>
+        <v>761</v>
       </c>
       <c r="E322" t="s">
         <v>333</v>
@@ -11207,13 +11198,13 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C324" t="s">
         <v>17</v>
       </c>
       <c r="D324" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E324" t="s">
         <v>335</v>
@@ -11252,17 +11243,14 @@
       </c>
     </row>
     <row r="326" spans="1:9">
-      <c r="A326" t="s">
-        <v>337</v>
-      </c>
       <c r="B326" t="s">
-        <v>678</v>
+        <v>17</v>
       </c>
       <c r="C326" t="s">
         <v>17</v>
       </c>
       <c r="D326" t="s">
-        <v>765</v>
+        <v>17</v>
       </c>
       <c r="E326" t="s">
         <v>337</v>
@@ -11354,7 +11342,7 @@
         <v>17</v>
       </c>
       <c r="D330" t="s">
-        <v>17</v>
+        <v>761</v>
       </c>
       <c r="E330" t="s">
         <v>341</v>
@@ -11370,8 +11358,11 @@
       </c>
     </row>
     <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>342</v>
+      </c>
       <c r="B331" t="s">
-        <v>17</v>
+        <v>675</v>
       </c>
       <c r="C331" t="s">
         <v>17</v>
@@ -11400,7 +11391,7 @@
         <v>17</v>
       </c>
       <c r="D332" t="s">
-        <v>765</v>
+        <v>17</v>
       </c>
       <c r="E332" t="s">
         <v>343</v>
@@ -11420,13 +11411,13 @@
         <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C333" t="s">
         <v>17</v>
       </c>
       <c r="D333" t="s">
-        <v>17</v>
+        <v>761</v>
       </c>
       <c r="E333" t="s">
         <v>344</v>
@@ -11465,17 +11456,14 @@
       </c>
     </row>
     <row r="335" spans="1:9">
-      <c r="A335" t="s">
-        <v>346</v>
-      </c>
       <c r="B335" t="s">
-        <v>680</v>
+        <v>17</v>
       </c>
       <c r="C335" t="s">
         <v>17</v>
       </c>
       <c r="D335" t="s">
-        <v>765</v>
+        <v>17</v>
       </c>
       <c r="E335" t="s">
         <v>346</v>
@@ -11491,128 +11479,82 @@
       </c>
     </row>
     <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>687</v>
+      </c>
       <c r="B336" t="s">
-        <v>17</v>
-      </c>
-      <c r="C336" t="s">
-        <v>17</v>
-      </c>
-      <c r="D336" t="s">
-        <v>17</v>
+        <v>760</v>
       </c>
       <c r="E336" t="s">
-        <v>347</v>
-      </c>
-      <c r="F336" t="s">
-        <v>17</v>
-      </c>
-      <c r="G336" t="s">
-        <v>5</v>
-      </c>
-      <c r="I336" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
-      <c r="B337" t="s">
-        <v>17</v>
-      </c>
-      <c r="C337" t="s">
-        <v>17</v>
-      </c>
-      <c r="D337" t="s">
-        <v>17</v>
-      </c>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="E337" t="s">
-        <v>348</v>
-      </c>
-      <c r="F337" t="s">
-        <v>17</v>
-      </c>
-      <c r="G337" t="s">
-        <v>5</v>
-      </c>
-      <c r="I337" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="B338" t="s">
-        <v>764</v>
+        <v>735</v>
+      </c>
+      <c r="C338" t="s">
+        <v>17</v>
+      </c>
+      <c r="D338" t="s">
+        <v>17</v>
       </c>
       <c r="E338" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>728</v>
+      </c>
+      <c r="B339" t="s">
+        <v>729</v>
+      </c>
       <c r="E339" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9">
-      <c r="A340" t="s">
         <v>728</v>
       </c>
-      <c r="B340" t="s">
+    </row>
+    <row r="340" spans="1:5">
+      <c r="E340" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="E341" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="E342" t="s">
         <v>739</v>
       </c>
-      <c r="C340" t="s">
-        <v>17</v>
-      </c>
-      <c r="D340" t="s">
-        <v>17</v>
-      </c>
-      <c r="E340" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9">
-      <c r="A341" t="s">
-        <v>732</v>
-      </c>
-      <c r="B341" t="s">
-        <v>733</v>
-      </c>
-      <c r="E341" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
-      <c r="E342" t="s">
+    </row>
+    <row r="343" spans="1:5">
+      <c r="E343" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="E344" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
-      <c r="E343" t="s">
+    <row r="345" spans="1:5">
+      <c r="E345" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
-      <c r="E344" t="s">
+    <row r="346" spans="1:5">
+      <c r="E346" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
-      <c r="E345" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
-      <c r="E346" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9">
-      <c r="E347" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9">
-      <c r="E348" t="s">
-        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -11675,7 +11617,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11686,7 +11628,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11697,62 +11639,62 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11763,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11774,29 +11716,29 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11807,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11818,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11829,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11840,7 +11782,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11851,7 +11793,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11862,7 +11804,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11873,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11884,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/Reproducibility Package/documentation/rider-audits/pooled/codebooks/label-constructed-data.xlsx
+++ b/Reproducibility Package/documentation/rider-audits/pooled/codebooks/label-constructed-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio-safe-space\Reproducibility Package\documentation\rider-audits\pooled\codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\rio-safe-space\Reproducibility Package\documentation\rider-audits\pooled\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192EA74-C406-4155-AB98-17D1C18D538F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C00418C-0778-417F-9AE3-13CE6F85CA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21864" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="762">
   <si>
     <t>name</t>
   </si>
@@ -2672,16 +2672,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2850,6 +2850,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" t="s">
         <v>657</v>
       </c>
@@ -11571,9 +11574,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11841,7 +11844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
